--- a/4.原创-数据安全/3.数据安全理念-持续更新.xlsx
+++ b/4.原创-数据安全/3.数据安全理念-持续更新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" firstSheet="2" activeTab="6"/>
+    <workbookView windowWidth="23040" windowHeight="9300" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="6" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="数据共享" sheetId="8" r:id="rId6"/>
     <sheet name="数据处理和分析" sheetId="4" r:id="rId7"/>
     <sheet name="数据销毁" sheetId="5" r:id="rId8"/>
+    <sheet name="关联安全" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="76">
   <si>
     <t>数据生命周期</t>
   </si>
@@ -201,6 +202,54 @@
   </si>
   <si>
     <t>流程完结性</t>
+  </si>
+  <si>
+    <t>关联方面</t>
+  </si>
+  <si>
+    <t>管理方面</t>
+  </si>
+  <si>
+    <t>技术方面</t>
+  </si>
+  <si>
+    <t>基础安全</t>
+  </si>
+  <si>
+    <t>对应用关联域名、IP及服务器、数据库、OSS、配置文件等的关联关系。</t>
+  </si>
+  <si>
+    <t>运行环境安全，环境纯洁性</t>
+  </si>
+  <si>
+    <t>办公安全</t>
+  </si>
+  <si>
+    <t>后台支持类系统，相关工作流程的安全</t>
+  </si>
+  <si>
+    <t>行为审计，日志记录</t>
+  </si>
+  <si>
+    <t>数据安全</t>
+  </si>
+  <si>
+    <t>密级数据的关联关系</t>
+  </si>
+  <si>
+    <t>行为审计，日志记录，系统脱敏，数据加解密</t>
+  </si>
+  <si>
+    <t>业务安全</t>
+  </si>
+  <si>
+    <t>业务系统，相关业务流程的安全</t>
+  </si>
+  <si>
+    <t>风控管理，审计等</t>
+  </si>
+  <si>
+    <t>等等</t>
   </si>
 </sst>
 </file>
@@ -213,10 +262,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -674,10 +729,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,34 +741,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -725,99 +777,105 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1180,12 +1238,12 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="18.8181818181818" customWidth="1"/>
-    <col min="2" max="2" width="25.8181818181818" customWidth="1"/>
-    <col min="3" max="3" width="21.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="14.6363636363636" customWidth="1"/>
+    <col min="1" max="1" width="18.8148148148148" customWidth="1"/>
+    <col min="2" max="2" width="25.8148148148148" customWidth="1"/>
+    <col min="3" max="3" width="21.5462962962963" customWidth="1"/>
+    <col min="4" max="4" width="14.6388888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1267,12 +1325,12 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20.9090909090909" customWidth="1"/>
-    <col min="2" max="2" width="16.5454545454545" customWidth="1"/>
-    <col min="3" max="3" width="21.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="17.3636363636364" customWidth="1"/>
+    <col min="1" max="1" width="20.9074074074074" customWidth="1"/>
+    <col min="2" max="2" width="16.5462962962963" customWidth="1"/>
+    <col min="3" max="3" width="21.3611111111111" customWidth="1"/>
+    <col min="4" max="4" width="17.3611111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -1282,7 +1340,7 @@
       <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1" t="s">
@@ -1340,15 +1398,15 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="13.5545454545455" customWidth="1"/>
-    <col min="3" max="3" width="13.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="17.0909090909091" customWidth="1"/>
+    <col min="1" max="1" width="15.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="13.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="13.3611111111111" customWidth="1"/>
+    <col min="4" max="4" width="17.0925925925926" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -1358,7 +1416,7 @@
       <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1" t="s">
@@ -1412,12 +1470,12 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="13.5545454545455" customWidth="1"/>
-    <col min="3" max="3" width="15.1818181818182" customWidth="1"/>
-    <col min="4" max="4" width="13.4545454545455" customWidth="1"/>
+    <col min="1" max="1" width="15.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="13.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="15.1851851851852" customWidth="1"/>
+    <col min="4" max="4" width="13.4537037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -1427,7 +1485,7 @@
       <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1" t="s">
@@ -1480,13 +1538,13 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="18.5454545454545" customWidth="1"/>
-    <col min="2" max="2" width="18.6363636363636" customWidth="1"/>
-    <col min="3" max="3" width="17.7272727272727" customWidth="1"/>
-    <col min="4" max="4" width="13.8181818181818" customWidth="1"/>
-    <col min="5" max="5" width="13.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="18.5462962962963" customWidth="1"/>
+    <col min="2" max="2" width="18.6388888888889" customWidth="1"/>
+    <col min="3" max="3" width="17.7314814814815" customWidth="1"/>
+    <col min="4" max="4" width="13.8148148148148" customWidth="1"/>
+    <col min="5" max="5" width="13.2685185185185" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -1496,7 +1554,7 @@
       <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1" t="s">
@@ -1572,7 +1630,7 @@
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="2"/>
+      <c r="D26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1590,13 +1648,13 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="18.5454545454545" customWidth="1"/>
-    <col min="2" max="2" width="18.6363636363636" customWidth="1"/>
-    <col min="3" max="3" width="17.7272727272727" customWidth="1"/>
-    <col min="4" max="4" width="13.8181818181818" customWidth="1"/>
-    <col min="5" max="5" width="13.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="18.5462962962963" customWidth="1"/>
+    <col min="2" max="2" width="18.6388888888889" customWidth="1"/>
+    <col min="3" max="3" width="17.7314814814815" customWidth="1"/>
+    <col min="4" max="4" width="13.8148148148148" customWidth="1"/>
+    <col min="5" max="5" width="13.2685185185185" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -1606,7 +1664,7 @@
       <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1" t="s">
@@ -1677,7 +1735,7 @@
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="2"/>
+      <c r="D26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1691,16 +1749,16 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.5454545454545" customWidth="1"/>
-    <col min="2" max="2" width="19.7272727272727" customWidth="1"/>
-    <col min="3" max="3" width="18.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="18.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="18.5462962962963" customWidth="1"/>
+    <col min="2" max="2" width="19.7314814814815" customWidth="1"/>
+    <col min="3" max="3" width="18.5462962962963" customWidth="1"/>
+    <col min="4" max="4" width="18.2685185185185" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -1710,7 +1768,7 @@
       <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1" t="s">
@@ -1738,7 +1796,7 @@
       </c>
     </row>
     <row r="14" spans="5:5">
-      <c r="E14" s="2"/>
+      <c r="E14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1752,10 +1810,10 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
       <c r="A1" t="s">
@@ -1764,7 +1822,7 @@
       <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1" t="s">
@@ -1784,6 +1842,88 @@
     <row r="8" spans="3:3">
       <c r="C8" t="s">
         <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="14.6388888888889" customWidth="1"/>
+    <col min="2" max="2" width="47.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="25.2685185185185" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:1">
+      <c r="A6" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
